--- a/data/OK_dividend.xlsx
+++ b/data/OK_dividend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27926532-5A14-4718-8CC2-E3B08BEB3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6801EEC-1AC3-433C-BF42-54DA78A0F101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Date</t>
+    <t>Dividend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dividend</t>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,9 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -372,10 +372,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/OK_dividend.xlsx
+++ b/data/OK_dividend.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\25Summer\AD685S A1 Quantitative Methods for Finance (Summer 1 2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6801EEC-1AC3-433C-BF42-54DA78A0F101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695ABBC0-F9F9-4504-93D1-6BFE4B2C5F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -380,39 +383,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44895</v>
+        <v>43903</v>
       </c>
       <c r="B2">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44819</v>
+        <v>43994</v>
       </c>
       <c r="B3">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44726</v>
+        <v>44088</v>
       </c>
       <c r="B4">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44634</v>
+        <v>44165</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44530</v>
+        <v>44267</v>
       </c>
       <c r="B6">
         <v>0.42</v>
@@ -420,7 +423,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44453</v>
+        <v>44361</v>
       </c>
       <c r="B7">
         <v>0.42</v>
@@ -428,7 +431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44361</v>
+        <v>44453</v>
       </c>
       <c r="B8">
         <v>0.42</v>
@@ -436,7 +439,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44267</v>
+        <v>44530</v>
       </c>
       <c r="B9">
         <v>0.42</v>
@@ -444,34 +447,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44165</v>
+        <v>44634</v>
       </c>
       <c r="B10">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44088</v>
+        <v>44726</v>
       </c>
       <c r="B11">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43994</v>
+        <v>44819</v>
       </c>
       <c r="B12">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43903</v>
+        <v>44895</v>
       </c>
       <c r="B13">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
